--- a/Experiment Result.xlsx
+++ b/Experiment Result.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Comparisson" sheetId="1" r:id="rId1"/>
-    <sheet name="Nonpar. test(k samples)2" sheetId="4" r:id="rId2"/>
-    <sheet name="Nonpar. test(k samples)1" sheetId="3" r:id="rId3"/>
-    <sheet name="Nonpar. test(k samples)" sheetId="2" r:id="rId4"/>
+    <sheet name="Friedman (DBI)" sheetId="10" r:id="rId2"/>
+    <sheet name="Friedman (RI)" sheetId="11" r:id="rId3"/>
+    <sheet name="Friedman (ER)" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="68">
   <si>
     <t>Davies-Bouldin Index</t>
   </si>
@@ -54,9 +54,6 @@
     <t>seeds</t>
   </si>
   <si>
-    <t>thyroid</t>
-  </si>
-  <si>
     <t>haberman</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>blood</t>
   </si>
   <si>
-    <t>audit</t>
-  </si>
-  <si>
     <t>Lower DBI, better cluster</t>
   </si>
   <si>
@@ -90,12 +84,6 @@
     <t>MEAN</t>
   </si>
   <si>
-    <t>XLSTAT 2014.5.03 - Comparison of k samples (Kruskal-Wallis, Friedman, ...) - on 4/25/2022 at 7:04:43 AM</t>
-  </si>
-  <si>
-    <t>Samples: Workbook = Experiment Result.xlsx / Sheet = Comparisson / Range = Comparisson!$J$4:$N$14 / 10 rows and 5 columns</t>
-  </si>
-  <si>
     <t>Significance level (%): 5</t>
   </si>
   <si>
@@ -156,12 +144,6 @@
     <t>Ha: The samples do not come from the same population.</t>
   </si>
   <si>
-    <t>As the computed p-value is greater than the significance level alpha=0.05, one cannot reject the null hypothesis H0.</t>
-  </si>
-  <si>
-    <t>The risk to reject the null hypothesis H0 while it is true is 88.67%.</t>
-  </si>
-  <si>
     <t>Ties have been detected in the data and the appropriate corrections have been applied.</t>
   </si>
   <si>
@@ -201,22 +183,49 @@
     <t>No</t>
   </si>
   <si>
-    <t>XLSTAT 2014.5.03 - Comparison of k samples (Kruskal-Wallis, Friedman, ...) - on 4/25/2022 at 7:25:40 AM</t>
-  </si>
-  <si>
-    <t>The risk to reject the null hypothesis H0 while it is true is 87.09%.</t>
-  </si>
-  <si>
-    <t>XLSTAT 2014.5.03 - Comparison of k samples (Kruskal-Wallis, Friedman, ...) - on 4/25/2022 at 7:53:58 AM</t>
-  </si>
-  <si>
     <t>Samples: Workbook = Experiment Result.xlsx / Sheet = Comparisson / Range = Comparisson!$J$23:$N$33 / 10 rows and 5 columns</t>
   </si>
   <si>
     <t>As the computed p-value is lower than the significance level alpha=0.05, one should reject the null hypothesis H0, and accept the alternative hypothesis Ha.</t>
   </si>
   <si>
-    <t>The risk to reject the null hypothesis H0 while it is true is lower than 4.45%.</t>
+    <t>Rank of Davies-Bouldin Index</t>
+  </si>
+  <si>
+    <t>Rank of Rand Index</t>
+  </si>
+  <si>
+    <t>Rank of Error Rate</t>
+  </si>
+  <si>
+    <t>Samples: Workbook = Experiment Result.xlsx / Sheet = Comparisson / Range = Comparisson!$J$42:$N$52 / 10 rows and 5 columns</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>vowel</t>
+  </si>
+  <si>
+    <t>XLSTAT 2014.5.03 - Comparison of k samples (Kruskal-Wallis, Friedman, ...) - on 4/25/2022 at 2:35:18 PM</t>
+  </si>
+  <si>
+    <t>The risk to reject the null hypothesis H0 while it is true is lower than 0.21%.</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>XLSTAT 2014.5.03 - Comparison of k samples (Kruskal-Wallis, Friedman, ...) - on 4/25/2022 at 2:36:16 PM</t>
+  </si>
+  <si>
+    <t>XLSTAT 2014.5.03 - Comparison of k samples (Kruskal-Wallis, Friedman, ...) - on 4/25/2022 at 2:37:04 PM</t>
+  </si>
+  <si>
+    <t>The risk to reject the null hypothesis H0 while it is true is lower than 0.08%.</t>
   </si>
 </sst>
 </file>
@@ -243,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +289,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -336,17 +351,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -373,11 +377,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -416,9 +444,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,7 +462,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -446,9 +471,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,6 +504,246 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" sel="1" val="0">
+  <itemLst>
+    <item val="Summary statistics"/>
+    <item val="Friedman's test"/>
+    <item val="Multiple pairwise comparisons using Nemenyi's procedure / Two-tailed test"/>
+  </itemLst>
+</formControlPr>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" sel="1" val="0">
+  <itemLst>
+    <item val="Summary statistics"/>
+    <item val="Friedman's test"/>
+    <item val="Multiple pairwise comparisons using Nemenyi's procedure / Two-tailed test"/>
+  </itemLst>
+</formControlPr>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" sel="1" val="0">
+  <itemLst>
+    <item val="Summary statistics"/>
+    <item val="Friedman's test"/>
+    <item val="Multiple pairwise comparisons using Nemenyi's procedure / Two-tailed test"/>
+  </itemLst>
+</formControlPr>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9524</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>606424</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7169" name="Drop Down 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7169"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9524</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>606424</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8193" name="Drop Down 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8193"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9524</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>606424</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9217" name="Drop Down 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9217"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -729,10 +1009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,6 +1026,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -828,7 +1112,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="6">
-        <v>0.53400000000000003</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C6" s="6">
         <v>0.54900000000000004</v>
@@ -847,23 +1131,23 @@
       </c>
       <c r="J6" s="6">
         <f>_xlfn.RANK.AVG(B6,$B$6:$F$6,1)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" ref="K6:N6" si="1">_xlfn.RANK.AVG(C6,$B$6:$F$6,1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -954,33 +1238,33 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B9" s="6">
-        <v>0.95399999999999996</v>
+        <v>0.622</v>
       </c>
       <c r="C9" s="6">
-        <v>0.92400000000000004</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="D9" s="6">
-        <v>0.98399999999999999</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="E9" s="6">
-        <v>0.98399999999999999</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="F9" s="6">
-        <v>0.98399999999999999</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="J9" s="6">
         <f>_xlfn.RANK.AVG(B9,$B$9:$F$9,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" ref="K9:N9" si="4">_xlfn.RANK.AVG(C9,$B$9:$F$9,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="4"/>
@@ -997,7 +1281,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6">
         <v>0.96799999999999997</v>
@@ -1015,7 +1299,7 @@
         <v>0.96</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" s="6">
         <f>_xlfn.RANK.AVG(B10,$B$10:$F$10,1)</f>
@@ -1040,7 +1324,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6">
         <v>2.5219999999999998</v>
@@ -1058,7 +1342,7 @@
         <v>1.554</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="6">
         <f>_xlfn.RANK.AVG(B11,$B$11:$F$11,1)</f>
@@ -1083,7 +1367,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6">
         <v>0.76100000000000001</v>
@@ -1101,7 +1385,7 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="6">
         <f>_xlfn.RANK.AVG(B12,$B$12:$F$12,1)</f>
@@ -1126,7 +1410,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6">
         <v>0.58199999999999996</v>
@@ -1144,7 +1428,7 @@
         <v>0.58199999999999996</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="6">
         <f>_xlfn.RANK.AVG(B13,$B$13:$F$13,1)</f>
@@ -1169,103 +1453,106 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B14" s="6">
-        <v>0.58199999999999996</v>
+        <v>1.534</v>
       </c>
       <c r="C14" s="6">
-        <v>0.56399999999999995</v>
+        <v>1.2629999999999999</v>
       </c>
       <c r="D14" s="6">
-        <v>0.58199999999999996</v>
+        <v>1.234</v>
       </c>
       <c r="E14" s="6">
-        <v>0.58199999999999996</v>
+        <v>1.4330000000000001</v>
       </c>
       <c r="F14" s="6">
-        <v>0.58199999999999996</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J14" s="6">
         <f>_xlfn.RANK.AVG(B14,$B$14:$F$14,1)</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" ref="K14:N14" si="9">_xlfn.RANK.AVG(C14,$B$14:$F$14,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="9"/>
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="9"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" si="9"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="7">
         <f>AVERAGE(B5:B14)</f>
-        <v>1.0413999999999999</v>
+        <v>1.105</v>
       </c>
       <c r="C15" s="7">
         <f>AVERAGE(C5:C14)</f>
-        <v>1.0551999999999999</v>
+        <v>1.0977999999999999</v>
       </c>
       <c r="D15" s="7">
         <f>AVERAGE(D5:D14)</f>
-        <v>0.98480000000000012</v>
+        <v>1.0258</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" ref="E15:F15" si="10">AVERAGE(E5:E14)</f>
-        <v>0.92979999999999996</v>
+        <v>0.99070000000000003</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="10"/>
-        <v>0.9174000000000001</v>
+        <v>0.97920000000000018</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J15" s="7">
         <f>AVERAGE(J5:J14)</f>
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K15" s="7">
         <f>AVERAGE(K5:K14)</f>
-        <v>3.15</v>
-      </c>
-      <c r="L15" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="L15" s="8">
         <f>AVERAGE(L5:L14)</f>
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="M15" s="7">
         <f t="shared" ref="M15" si="11">AVERAGE(M5:M14)</f>
-        <v>3</v>
-      </c>
-      <c r="N15" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="N15" s="42">
         <f t="shared" ref="N15" si="12">AVERAGE(N5:N14)</f>
         <v>2.7</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1350,7 +1637,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="1">
-        <v>0.98299999999999998</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="C25" s="1">
         <v>0.82599999999999996</v>
@@ -1369,23 +1656,23 @@
       </c>
       <c r="J25" s="1">
         <f>_xlfn.RANK.AVG(B25,$B$25:$F$25,)</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" ref="K25:N25" si="14">_xlfn.RANK.AVG(C25,$B$25:$F$25,)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="14"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="14"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="14"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1436,10 +1723,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="1">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="C27" s="1">
         <v>0.95699999999999996</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.94299999999999995</v>
       </c>
       <c r="D27" s="1">
         <v>0.94299999999999995</v>
@@ -1455,11 +1742,11 @@
       </c>
       <c r="J27" s="1">
         <f>_xlfn.RANK.AVG(B27,$B$27:$F$27,)</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" ref="K27:N27" si="16">_xlfn.RANK.AVG(C27,$B$27:$F$27,)</f>
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="16"/>
@@ -1476,33 +1763,33 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1">
-        <v>0.96299999999999997</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="C28" s="1">
-        <v>0.96699999999999997</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="D28" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="E28" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="F28" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="J28" s="1">
         <f>_xlfn.RANK.AVG(B28,$B$28:$F$28,)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" ref="K28:N28" si="17">_xlfn.RANK.AVG(C28,$B$28:$F$28,)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="17"/>
@@ -1519,10 +1806,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
-        <v>0.77500000000000002</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="C29" s="1">
         <v>0.88200000000000001</v>
@@ -1537,7 +1824,7 @@
         <v>0.82</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J29" s="1">
         <f>_xlfn.RANK.AVG(B29,$B$29:$F$29,)</f>
@@ -1562,10 +1849,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1">
-        <v>0.89500000000000002</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="C30" s="1">
         <v>0.65</v>
@@ -1580,11 +1867,11 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J30" s="1">
         <f>_xlfn.RANK.AVG(B30,$B$30:$F$30,)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" ref="K30:N30" si="19">_xlfn.RANK.AVG(C30,$B$30:$F$30,)</f>
@@ -1592,20 +1879,20 @@
       </c>
       <c r="L30" s="1">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1">
         <v>0.99</v>
@@ -1623,7 +1910,7 @@
         <v>0.99</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1">
         <f>_xlfn.RANK.AVG(B31,$B$31:$F$31,)</f>
@@ -1648,7 +1935,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1">
         <v>0.91800000000000004</v>
@@ -1666,7 +1953,7 @@
         <v>0.95</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1">
         <f>_xlfn.RANK.AVG(B32,$B$32:$F$32,)</f>
@@ -1691,29 +1978,29 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1">
-        <v>0.95</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="C33" s="1">
-        <v>0.91800000000000004</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D33" s="1">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="E33" s="1">
-        <v>0.95</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="F33" s="1">
-        <v>0.95</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J33" s="1">
         <f>_xlfn.RANK.AVG(B33,$B$33:$F$33,)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" ref="K33:N33" si="22">_xlfn.RANK.AVG(C33,$B$33:$F$33,)</f>
@@ -1721,51 +2008,51 @@
       </c>
       <c r="L33" s="1">
         <f t="shared" si="22"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="22"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="22"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" s="7">
         <f>AVERAGE(B24:B33)</f>
-        <v>0.90699999999999981</v>
+        <v>0.83210000000000017</v>
       </c>
       <c r="C34" s="7">
         <f>AVERAGE(C24:C33)</f>
-        <v>0.89739999999999986</v>
+        <v>0.81500000000000006</v>
       </c>
       <c r="D34" s="7">
         <f>AVERAGE(D24:D33)</f>
-        <v>0.94249999999999989</v>
+        <v>0.90169999999999995</v>
       </c>
       <c r="E34" s="7">
         <f>AVERAGE(E24:E33)</f>
-        <v>0.93854999999999988</v>
+        <v>0.91965000000000008</v>
       </c>
       <c r="F34" s="8">
         <f>AVERAGE(F24:F33)</f>
-        <v>0.94480000000000008</v>
+        <v>0.92810000000000004</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J34" s="7">
         <f>AVERAGE(J24:J33)</f>
-        <v>3.45</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="K34" s="7">
         <f>AVERAGE(K24:K33)</f>
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L34" s="7">
         <f>AVERAGE(L24:L33)</f>
@@ -1773,21 +2060,24 @@
       </c>
       <c r="M34" s="7">
         <f>AVERAGE(M24:M33)</f>
-        <v>2.75</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="N34" s="8">
         <f>AVERAGE(N24:N33)</f>
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -1807,6 +2097,22 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -1827,13 +2133,36 @@
       <c r="F43" s="1">
         <v>7.3330000000000002</v>
       </c>
+      <c r="I43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="1">
+        <f>_xlfn.RANK.AVG(B43,$B$43:$F$43,1)</f>
+        <v>5</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" ref="K43:N43" si="23">_xlfn.RANK.AVG(C43,$B$43:$F$43,1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="1">
-        <v>1.6850000000000001</v>
+        <v>17.416</v>
       </c>
       <c r="C44" s="1">
         <v>17.416</v>
@@ -1846,6 +2175,29 @@
       </c>
       <c r="F44" s="1">
         <v>1.6859999999999999</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="1">
+        <f>_xlfn.RANK.AVG(B44,$B$44:$F$44,1)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" ref="K44:N44" si="24">_xlfn.RANK.AVG(C44,$B$44:$F$44,1)</f>
+        <v>4.5</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="24"/>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -1867,13 +2219,36 @@
       <c r="F45" s="1">
         <v>0.48099999999999998</v>
       </c>
+      <c r="I45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="1">
+        <f>_xlfn.RANK.AVG(B45,$B$45:$F$45,1)</f>
+        <v>5</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" ref="K45:N45" si="25">_xlfn.RANK.AVG(C45,$B$45:$F$45,1)</f>
+        <v>4</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="1">
-        <v>4.2859999999999996</v>
+        <v>5.7140000000000004</v>
       </c>
       <c r="C46" s="1">
         <v>5.7140000000000004</v>
@@ -1887,33 +2262,79 @@
       <c r="F46" s="1">
         <v>4.2859999999999996</v>
       </c>
+      <c r="I46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="1">
+        <f>_xlfn.RANK.AVG(B46,$B$46:$F$46,1)</f>
+        <v>4</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" ref="K46:N46" si="26">_xlfn.RANK.AVG(C46,$B$46:$F$46,1)</f>
+        <v>4</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B47" s="1">
-        <v>3.7210000000000001</v>
+        <v>29.550999999999998</v>
       </c>
       <c r="C47" s="1">
-        <v>3.2559999999999998</v>
+        <v>31.678000000000001</v>
       </c>
       <c r="D47" s="1">
-        <v>0.93</v>
+        <v>16.667000000000002</v>
       </c>
       <c r="E47" s="1">
-        <v>0.93</v>
+        <v>16.667000000000002</v>
       </c>
       <c r="F47" s="1">
-        <v>0.93</v>
+        <v>16.667000000000002</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" s="1">
+        <f>_xlfn.RANK.AVG(B47,$B$47:$F$47,1)</f>
+        <v>4</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" ref="K47:N47" si="27">_xlfn.RANK.AVG(C47,$B$47:$F$47,1)</f>
+        <v>5</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="1">
-        <v>22.548999999999999</v>
+        <v>19.934999999999999</v>
       </c>
       <c r="C48" s="1">
         <v>11.765000000000001</v>
@@ -1927,13 +2348,36 @@
       <c r="F48" s="1">
         <v>17.974</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="1">
+        <f>_xlfn.RANK.AVG(B48,$B$48:$F$48,1)</f>
+        <v>4</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" ref="K48:N48" si="28">_xlfn.RANK.AVG(C48,$B$48:$F$48,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="28"/>
+        <v>2.5</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="28"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1">
-        <v>33.332999999999998</v>
+        <v>34.758000000000003</v>
       </c>
       <c r="C49" s="1">
         <v>35.042999999999999</v>
@@ -1947,10 +2391,33 @@
       <c r="F49" s="1">
         <v>11.111000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="1">
+        <f>_xlfn.RANK.AVG(B49,$B$49:$F$49,1)</f>
+        <v>4</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" ref="K49:N49" si="29">_xlfn.RANK.AVG(C49,$B$49:$F$49,1)</f>
+        <v>5</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1">
         <v>1.0009999999999999</v>
@@ -1967,10 +2434,33 @@
       <c r="F50" s="1">
         <v>1.0009999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="1">
+        <f>_xlfn.RANK.AVG(B50,$B$50:$F$50,1)</f>
+        <v>3</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" ref="K50:N50" si="30">_xlfn.RANK.AVG(C50,$B$50:$F$50,1)</f>
+        <v>3</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" s="1">
         <v>8.1660000000000004</v>
@@ -1987,55 +2477,124 @@
       <c r="F51" s="1">
         <v>4.9530000000000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="1">
+        <f>_xlfn.RANK.AVG(B51,$B$51:$F$51,1)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" ref="K51:N51" si="31">_xlfn.RANK.AVG(C51,$B$51:$F$51,1)</f>
+        <v>4.5</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B52" s="1">
-        <v>4.9530000000000003</v>
+        <v>15.151</v>
       </c>
       <c r="C52" s="1">
-        <v>8.1660000000000004</v>
+        <v>63.636000000000003</v>
       </c>
       <c r="D52" s="1">
-        <v>4.9530000000000003</v>
+        <v>30</v>
       </c>
       <c r="E52" s="1">
-        <v>4.9530000000000003</v>
+        <v>8.0809999999999995</v>
       </c>
       <c r="F52" s="1">
-        <v>4.9530000000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.859</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="1">
+        <f>_xlfn.RANK.AVG(B52,$B$52:$F$52,1)</f>
+        <v>3</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" ref="K52:N52" si="32">_xlfn.RANK.AVG(C52,$B$52:$F$52,1)</f>
+        <v>5</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B53" s="7">
         <f>AVERAGE(B43:B52)</f>
-        <v>11.583500000000001</v>
+        <v>16.783300000000001</v>
       </c>
       <c r="C53" s="7">
         <f>AVERAGE(C43:C52)</f>
-        <v>10.2187</v>
+        <v>18.607900000000001</v>
       </c>
       <c r="D53" s="7">
         <f>AVERAGE(D43:D52)</f>
-        <v>5.6995000000000005</v>
+        <v>9.7778999999999989</v>
       </c>
       <c r="E53" s="7">
         <f>AVERAGE(E43:E52)</f>
-        <v>6.0993000000000004</v>
+        <v>7.985800000000002</v>
       </c>
       <c r="F53" s="8">
         <f>AVERAGE(F43:F52)</f>
-        <v>5.4708000000000006</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.1350999999999996</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="7">
+        <f>AVERAGE(J43:J52)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K53" s="7">
+        <f>AVERAGE(K43:K52)</f>
+        <v>3.85</v>
+      </c>
+      <c r="L53" s="7">
+        <f>AVERAGE(L43:L52)</f>
+        <v>2.6</v>
+      </c>
+      <c r="M53" s="7">
+        <f>AVERAGE(M43:M52)</f>
+        <v>2.5</v>
+      </c>
+      <c r="N53" s="8">
+        <f>AVERAGE(N43:N52)</f>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2045,10 +2604,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2063,49 +2625,50 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -2122,16 +2685,16 @@
         <v>10</v>
       </c>
       <c r="F11" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="17">
         <v>5</v>
       </c>
       <c r="H11" s="17">
-        <v>3.4499999999999997</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I11" s="17">
-        <v>1.4424131015612536</v>
+        <v>0.70906824620608822</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -2154,10 +2717,10 @@
         <v>5</v>
       </c>
       <c r="H12" s="18">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I12" s="18">
-        <v>1.3133925536563698</v>
+        <v>1.4346892811104894</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -2183,7 +2746,7 @@
         <v>2.65</v>
       </c>
       <c r="I13" s="18">
-        <v>0.74721705904866309</v>
+        <v>0.91439111495634695</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -2206,10 +2769,10 @@
         <v>5</v>
       </c>
       <c r="H14" s="18">
-        <v>2.75</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I14" s="18">
-        <v>1.0069204977995476</v>
+        <v>0.95597535997999905</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2226,35 +2789,35 @@
         <v>10</v>
       </c>
       <c r="F15" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="19">
         <v>3</v>
       </c>
       <c r="H15" s="19">
-        <v>2.2999999999999998</v>
+        <v>2.0000000000000004</v>
       </c>
       <c r="I15" s="19">
-        <v>0.34960294939005049</v>
+        <v>0.62360956446232363</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" s="21">
-        <v>9.7709923664122229</v>
+        <v>16.82191780821918</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" s="22">
         <v>9.4877290367837048</v>
@@ -2262,7 +2825,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22" s="23">
         <v>4</v>
@@ -2270,15 +2833,15 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23" s="22">
-        <v>4.4467124734601682E-2</v>
+        <v>2.093152339279869E-3</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" s="24">
         <v>0.05</v>
@@ -2286,164 +2849,176 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="B29" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="26">
         <v>10</v>
       </c>
-      <c r="D39" s="30">
-        <v>23</v>
-      </c>
-      <c r="E39" s="30">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>52</v>
-      </c>
+      <c r="D39" s="29">
+        <v>20</v>
+      </c>
+      <c r="E39" s="29">
+        <v>2</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="29"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="28">
+        <v>4</v>
+      </c>
+      <c r="C40" s="27">
         <v>10</v>
       </c>
-      <c r="D40" s="31">
-        <v>26.5</v>
-      </c>
-      <c r="E40" s="31">
-        <v>2.65</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>52</v>
+      <c r="D40" s="30">
+        <v>25.5</v>
+      </c>
+      <c r="E40" s="30">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="28">
+        <v>3</v>
+      </c>
+      <c r="C41" s="27">
         <v>10</v>
       </c>
-      <c r="D41" s="31">
-        <v>27.5</v>
-      </c>
-      <c r="E41" s="31">
-        <v>2.75</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>52</v>
+      <c r="D41" s="30">
+        <v>26.5</v>
+      </c>
+      <c r="E41" s="30">
+        <v>2.65</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="28">
+        <v>2</v>
+      </c>
+      <c r="C42" s="27">
         <v>10</v>
       </c>
-      <c r="D42" s="31">
-        <v>34.5</v>
-      </c>
-      <c r="E42" s="31">
-        <v>3.45</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>52</v>
+      <c r="D42" s="30">
+        <v>36.5</v>
+      </c>
+      <c r="E42" s="30">
+        <v>3.65</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="29">
+        <v>1</v>
+      </c>
+      <c r="C43" s="28">
         <v>10</v>
       </c>
-      <c r="D43" s="32">
-        <v>38.5</v>
-      </c>
-      <c r="E43" s="32">
-        <v>3.85</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>52</v>
+      <c r="D43" s="31">
+        <v>41.5</v>
+      </c>
+      <c r="E43" s="31">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2473,16 +3048,16 @@
         <v>0</v>
       </c>
       <c r="D49" s="17">
-        <v>-0.39999999999999991</v>
+        <v>0.50000000000000044</v>
       </c>
       <c r="E49" s="17">
-        <v>0.80000000000000027</v>
+        <v>1.5000000000000004</v>
       </c>
       <c r="F49" s="17">
-        <v>0.70000000000000018</v>
+        <v>1.6000000000000005</v>
       </c>
       <c r="G49" s="17">
-        <v>1.1500000000000004</v>
+        <v>2.1500000000000004</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -2490,19 +3065,19 @@
         <v>2</v>
       </c>
       <c r="C50" s="18">
-        <v>0.39999999999999991</v>
+        <v>-0.50000000000000044</v>
       </c>
       <c r="D50" s="15">
         <v>0</v>
       </c>
       <c r="E50" s="18">
-        <v>1.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="F50" s="18">
         <v>1.1000000000000001</v>
       </c>
       <c r="G50" s="18">
-        <v>1.5500000000000003</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -2510,19 +3085,19 @@
         <v>3</v>
       </c>
       <c r="C51" s="18">
-        <v>-0.80000000000000027</v>
+        <v>-1.5000000000000004</v>
       </c>
       <c r="D51" s="18">
-        <v>-1.2000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
       </c>
       <c r="F51" s="18">
-        <v>-0.10000000000000009</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="G51" s="18">
-        <v>0.35000000000000009</v>
+        <v>0.64999999999999991</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
@@ -2530,19 +3105,19 @@
         <v>4</v>
       </c>
       <c r="C52" s="18">
-        <v>-0.70000000000000018</v>
+        <v>-1.6000000000000005</v>
       </c>
       <c r="D52" s="18">
         <v>-1.1000000000000001</v>
       </c>
       <c r="E52" s="18">
-        <v>0.10000000000000009</v>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="F52" s="15">
         <v>0</v>
       </c>
       <c r="G52" s="18">
-        <v>0.45000000000000018</v>
+        <v>0.54999999999999982</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2550,16 +3125,16 @@
         <v>5</v>
       </c>
       <c r="C53" s="19">
-        <v>-1.1500000000000004</v>
+        <v>-2.1500000000000004</v>
       </c>
       <c r="D53" s="19">
-        <v>-1.5500000000000003</v>
+        <v>-1.65</v>
       </c>
       <c r="E53" s="19">
-        <v>-0.35000000000000009</v>
+        <v>-0.64999999999999991</v>
       </c>
       <c r="F53" s="19">
-        <v>-0.45000000000000018</v>
+        <v>-0.54999999999999982</v>
       </c>
       <c r="G53" s="16">
         <v>0</v>
@@ -2567,12 +3142,12 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2602,16 +3177,16 @@
         <v>1</v>
       </c>
       <c r="D60" s="17">
-        <v>0.97998333828156503</v>
+        <v>0.95495485523356216</v>
       </c>
       <c r="E60" s="17">
-        <v>0.78993470470511884</v>
+        <v>0.21087650496222066</v>
       </c>
       <c r="F60" s="17">
-        <v>0.85999104702353302</v>
-      </c>
-      <c r="G60" s="17">
-        <v>0.48038601057655983</v>
+        <v>0.15711465685463677</v>
+      </c>
+      <c r="G60" s="38">
+        <v>1.9990561941010676E-2</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -2619,19 +3194,19 @@
         <v>2</v>
       </c>
       <c r="C61" s="18">
-        <v>0.97998333828156503</v>
+        <v>0.95495485523356216</v>
       </c>
       <c r="D61" s="15">
         <v>1</v>
       </c>
       <c r="E61" s="18">
-        <v>0.43570821953460803</v>
+        <v>0.61844948055127658</v>
       </c>
       <c r="F61" s="18">
         <v>0.52610071111483692</v>
       </c>
       <c r="G61" s="18">
-        <v>0.18260777396435401</v>
+        <v>0.13432147740595979</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
@@ -2639,10 +3214,10 @@
         <v>3</v>
       </c>
       <c r="C62" s="18">
-        <v>0.78993470470511884</v>
+        <v>0.21087650496222066</v>
       </c>
       <c r="D62" s="18">
-        <v>0.43570821953460803</v>
+        <v>0.61844948055127658</v>
       </c>
       <c r="E62" s="15">
         <v>1</v>
@@ -2651,7 +3226,7 @@
         <v>0.99991021685700587</v>
       </c>
       <c r="G62" s="18">
-        <v>0.98785746923065765</v>
+        <v>0.88960540292382151</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -2659,7 +3234,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="18">
-        <v>0.85999104702353302</v>
+        <v>0.15711465685463677</v>
       </c>
       <c r="D63" s="18">
         <v>0.52610071111483692</v>
@@ -2671,24 +3246,24 @@
         <v>1</v>
       </c>
       <c r="G63" s="18">
-        <v>0.96915159200350132</v>
+        <v>0.93707828375845281</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="19">
-        <v>0.48038601057655983</v>
+      <c r="C64" s="39">
+        <v>1.9990561941010676E-2</v>
       </c>
       <c r="D64" s="19">
-        <v>0.18260777396435401</v>
+        <v>0.13432147740595979</v>
       </c>
       <c r="E64" s="19">
-        <v>0.98785746923065765</v>
+        <v>0.88960540292382151</v>
       </c>
       <c r="F64" s="19">
-        <v>0.96915159200350132</v>
+        <v>0.93707828375845281</v>
       </c>
       <c r="G64" s="16">
         <v>1</v>
@@ -2696,7 +3271,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2722,118 +3297,150 @@
       <c r="B70" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="27" t="s">
-        <v>58</v>
+      <c r="C70" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F71" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G71" s="28" t="s">
-        <v>58</v>
+      <c r="C71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>58</v>
+      <c r="C72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G73" s="28" t="s">
-        <v>58</v>
+      <c r="C73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G74" s="29" t="s">
-        <v>58</v>
+      <c r="C74" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B29:J30"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="7169" r:id="rId3" name="Drop Down 1">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0" macro="[0]!GoToResults4252022235184">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>609600</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2843,54 +3450,55 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -2907,16 +3515,16 @@
         <v>10</v>
       </c>
       <c r="F11" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="17">
         <v>5</v>
       </c>
       <c r="H11" s="17">
-        <v>3.25</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I11" s="17">
-        <v>1.1843892002959913</v>
+        <v>0.70906824620608822</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -2939,10 +3547,10 @@
         <v>5</v>
       </c>
       <c r="H12" s="18">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="I12" s="18">
-        <v>1.7167475709090789</v>
+        <v>1.4346892811104894</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -2959,16 +3567,16 @@
         <v>10</v>
       </c>
       <c r="F13" s="18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="18">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H13" s="18">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="I13" s="18">
-        <v>0.7745966692414834</v>
+        <v>0.91439111495634695</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -2988,13 +3596,13 @@
         <v>2</v>
       </c>
       <c r="G14" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="18">
-        <v>3</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I14" s="18">
-        <v>0.70710678118654757</v>
+        <v>0.95597535997999905</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3014,32 +3622,32 @@
         <v>1</v>
       </c>
       <c r="G15" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="19">
-        <v>2.7</v>
+        <v>2.0000000000000004</v>
       </c>
       <c r="I15" s="19">
-        <v>0.97752521990767849</v>
+        <v>0.62360956446232363</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" s="21">
-        <v>1.243697478991612</v>
+        <v>16.82191780821918</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" s="22">
         <v>9.4877290367837048</v>
@@ -3047,7 +3655,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22" s="23">
         <v>4</v>
@@ -3055,15 +3663,15 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23" s="22">
-        <v>0.87085303848968865</v>
+        <v>2.093152339279869E-3</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" s="24">
         <v>0.05</v>
@@ -3071,164 +3679,176 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="B29" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="26">
         <v>10</v>
       </c>
-      <c r="D39" s="30">
-        <v>27</v>
-      </c>
-      <c r="E39" s="30">
-        <v>2.7</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>52</v>
-      </c>
+      <c r="D39" s="29">
+        <v>20</v>
+      </c>
+      <c r="E39" s="29">
+        <v>2</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="29"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="28">
+        <v>4</v>
+      </c>
+      <c r="C40" s="27">
         <v>10</v>
       </c>
-      <c r="D40" s="31">
-        <v>29</v>
-      </c>
-      <c r="E40" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>52</v>
+      <c r="D40" s="30">
+        <v>25.5</v>
+      </c>
+      <c r="E40" s="30">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="28">
+        <v>3</v>
+      </c>
+      <c r="C41" s="27">
         <v>10</v>
       </c>
-      <c r="D41" s="31">
-        <v>30</v>
-      </c>
-      <c r="E41" s="31">
-        <v>3</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>52</v>
+      <c r="D41" s="30">
+        <v>26.5</v>
+      </c>
+      <c r="E41" s="30">
+        <v>2.65</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="27">
         <v>10</v>
       </c>
-      <c r="D42" s="31">
-        <v>31.5</v>
-      </c>
-      <c r="E42" s="31">
-        <v>3.15</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>52</v>
+      <c r="D42" s="30">
+        <v>36.5</v>
+      </c>
+      <c r="E42" s="30">
+        <v>3.65</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="28">
         <v>10</v>
       </c>
-      <c r="D43" s="32">
-        <v>32.5</v>
-      </c>
-      <c r="E43" s="32">
-        <v>3.25</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>52</v>
+      <c r="D43" s="31">
+        <v>41.5</v>
+      </c>
+      <c r="E43" s="31">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3258,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="D49" s="17">
-        <v>0.10000000000000009</v>
+        <v>0.50000000000000044</v>
       </c>
       <c r="E49" s="17">
-        <v>0.35000000000000009</v>
+        <v>1.5000000000000004</v>
       </c>
       <c r="F49" s="17">
-        <v>0.25</v>
+        <v>1.6000000000000005</v>
       </c>
       <c r="G49" s="17">
-        <v>0.54999999999999982</v>
+        <v>2.1500000000000004</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -3275,19 +3895,19 @@
         <v>2</v>
       </c>
       <c r="C50" s="18">
-        <v>-0.10000000000000009</v>
+        <v>-0.50000000000000044</v>
       </c>
       <c r="D50" s="15">
         <v>0</v>
       </c>
       <c r="E50" s="18">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F50" s="18">
-        <v>0.14999999999999991</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G50" s="18">
-        <v>0.44999999999999973</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -3295,19 +3915,19 @@
         <v>3</v>
       </c>
       <c r="C51" s="18">
-        <v>-0.35000000000000009</v>
+        <v>-1.5000000000000004</v>
       </c>
       <c r="D51" s="18">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
       </c>
       <c r="F51" s="18">
-        <v>-0.10000000000000009</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="G51" s="18">
-        <v>0.19999999999999973</v>
+        <v>0.64999999999999991</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
@@ -3315,19 +3935,19 @@
         <v>4</v>
       </c>
       <c r="C52" s="18">
-        <v>-0.25</v>
+        <v>-1.6000000000000005</v>
       </c>
       <c r="D52" s="18">
-        <v>-0.14999999999999991</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="E52" s="18">
-        <v>0.10000000000000009</v>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="F52" s="15">
         <v>0</v>
       </c>
       <c r="G52" s="18">
-        <v>0.29999999999999982</v>
+        <v>0.54999999999999982</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3335,16 +3955,16 @@
         <v>5</v>
       </c>
       <c r="C53" s="19">
+        <v>-2.1500000000000004</v>
+      </c>
+      <c r="D53" s="19">
+        <v>-1.65</v>
+      </c>
+      <c r="E53" s="19">
+        <v>-0.64999999999999991</v>
+      </c>
+      <c r="F53" s="19">
         <v>-0.54999999999999982</v>
-      </c>
-      <c r="D53" s="19">
-        <v>-0.44999999999999973</v>
-      </c>
-      <c r="E53" s="19">
-        <v>-0.19999999999999973</v>
-      </c>
-      <c r="F53" s="19">
-        <v>-0.29999999999999982</v>
       </c>
       <c r="G53" s="16">
         <v>0</v>
@@ -3352,12 +3972,12 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3387,16 +4007,16 @@
         <v>1</v>
       </c>
       <c r="D60" s="17">
-        <v>0.99991021685700587</v>
+        <v>0.95495485523356216</v>
       </c>
       <c r="E60" s="17">
-        <v>0.98785746923065765</v>
+        <v>0.21087650496222066</v>
       </c>
       <c r="F60" s="17">
-        <v>0.99665968393005877</v>
-      </c>
-      <c r="G60" s="17">
-        <v>0.93707828375845281</v>
+        <v>0.15711465685463677</v>
+      </c>
+      <c r="G60" s="38">
+        <v>1.9990561941010676E-2</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -3404,19 +4024,19 @@
         <v>2</v>
       </c>
       <c r="C61" s="18">
-        <v>0.99991021685700587</v>
+        <v>0.95495485523356216</v>
       </c>
       <c r="D61" s="15">
         <v>1</v>
       </c>
       <c r="E61" s="18">
-        <v>0.99665968393005877</v>
+        <v>0.61844948055127658</v>
       </c>
       <c r="F61" s="18">
-        <v>0.99955073234847669</v>
+        <v>0.52610071111483692</v>
       </c>
       <c r="G61" s="18">
-        <v>0.96915159200350143</v>
+        <v>0.13432147740595979</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
@@ -3424,10 +4044,10 @@
         <v>3</v>
       </c>
       <c r="C62" s="18">
-        <v>0.98785746923065765</v>
+        <v>0.21087650496222066</v>
       </c>
       <c r="D62" s="18">
-        <v>0.99665968393005877</v>
+        <v>0.61844948055127658</v>
       </c>
       <c r="E62" s="15">
         <v>1</v>
@@ -3436,7 +4056,7 @@
         <v>0.99991021685700587</v>
       </c>
       <c r="G62" s="18">
-        <v>0.99860299122440166</v>
+        <v>0.88960540292382151</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -3444,10 +4064,10 @@
         <v>4</v>
       </c>
       <c r="C63" s="18">
-        <v>0.99665968393005877</v>
+        <v>0.15711465685463677</v>
       </c>
       <c r="D63" s="18">
-        <v>0.99955073234847669</v>
+        <v>0.52610071111483692</v>
       </c>
       <c r="E63" s="18">
         <v>0.99991021685700587</v>
@@ -3456,24 +4076,24 @@
         <v>1</v>
       </c>
       <c r="G63" s="18">
-        <v>0.99324709979755244</v>
+        <v>0.93707828375845281</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="39">
+        <v>1.9990561941010676E-2</v>
+      </c>
+      <c r="D64" s="19">
+        <v>0.13432147740595979</v>
+      </c>
+      <c r="E64" s="19">
+        <v>0.88960540292382151</v>
+      </c>
+      <c r="F64" s="19">
         <v>0.93707828375845281</v>
-      </c>
-      <c r="D64" s="19">
-        <v>0.96915159200350143</v>
-      </c>
-      <c r="E64" s="19">
-        <v>0.99860299122440166</v>
-      </c>
-      <c r="F64" s="19">
-        <v>0.99324709979755244</v>
       </c>
       <c r="G64" s="16">
         <v>1</v>
@@ -3481,7 +4101,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3507,118 +4127,150 @@
       <c r="B70" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="27" t="s">
-        <v>58</v>
+      <c r="C70" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F71" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G71" s="28" t="s">
-        <v>58</v>
+      <c r="C71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>58</v>
+      <c r="C72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G73" s="28" t="s">
-        <v>58</v>
+      <c r="C73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G74" s="29" t="s">
-        <v>58</v>
+      <c r="C74" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B29:J30"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="8193" r:id="rId3" name="Drop Down 1">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0" macro="[0]!GoToResults42520222361686">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>609600</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3628,54 +4280,55 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -3692,16 +4345,16 @@
         <v>10</v>
       </c>
       <c r="F11" s="17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="17">
         <v>5</v>
       </c>
       <c r="H11" s="17">
-        <v>3.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I11" s="17">
-        <v>1.390443574307614</v>
+        <v>0.69920589878010109</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -3724,10 +4377,10 @@
         <v>5</v>
       </c>
       <c r="H12" s="18">
-        <v>2.75</v>
+        <v>3.85</v>
       </c>
       <c r="I12" s="18">
-        <v>1.5500896031448561</v>
+        <v>1.3133925536563698</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -3744,16 +4397,16 @@
         <v>10</v>
       </c>
       <c r="F13" s="18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="18">
         <v>4</v>
       </c>
       <c r="H13" s="18">
-        <v>3.0999999999999996</v>
+        <v>2.6</v>
       </c>
       <c r="I13" s="18">
-        <v>0.9368979548370131</v>
+        <v>0.80966385343274128</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -3770,16 +4423,16 @@
         <v>10</v>
       </c>
       <c r="F14" s="18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G14" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="18">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="I14" s="18">
-        <v>0.754615428178118</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3799,32 +4452,32 @@
         <v>1</v>
       </c>
       <c r="G15" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="19">
-        <v>2.8000000000000003</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="I15" s="19">
-        <v>1.0852547064066471</v>
+        <v>0.64334196885395944</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" s="21">
-        <v>1.1472868217054404</v>
+        <v>18.876712328767127</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" s="22">
         <v>9.4877290367837048</v>
@@ -3832,7 +4485,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22" s="23">
         <v>4</v>
@@ -3840,15 +4493,15 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23" s="22">
-        <v>0.88669887958749205</v>
+        <v>8.310097337790312E-4</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" s="24">
         <v>0.05</v>
@@ -3856,164 +4509,176 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="B29" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="25" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="27">
+        <v>5</v>
+      </c>
+      <c r="C39" s="26">
         <v>10</v>
       </c>
-      <c r="D39" s="30">
-        <v>27.5</v>
-      </c>
-      <c r="E39" s="30">
-        <v>2.75</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>52</v>
-      </c>
+      <c r="D39" s="29">
+        <v>19.5</v>
+      </c>
+      <c r="E39" s="29">
+        <v>1.95</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="29"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="28">
+        <v>4</v>
+      </c>
+      <c r="C40" s="27">
         <v>10</v>
       </c>
-      <c r="D40" s="31">
-        <v>28</v>
-      </c>
-      <c r="E40" s="31">
-        <v>2.8</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>52</v>
+      <c r="D40" s="30">
+        <v>25</v>
+      </c>
+      <c r="E40" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="28">
+        <v>3</v>
+      </c>
+      <c r="C41" s="27">
         <v>10</v>
       </c>
-      <c r="D41" s="31">
-        <v>31</v>
-      </c>
-      <c r="E41" s="31">
-        <v>3.1</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>52</v>
+      <c r="D41" s="30">
+        <v>26</v>
+      </c>
+      <c r="E41" s="30">
+        <v>2.6</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="28">
+        <v>2</v>
+      </c>
+      <c r="C42" s="27">
         <v>10</v>
       </c>
-      <c r="D42" s="31">
-        <v>31</v>
-      </c>
-      <c r="E42" s="31">
-        <v>3.1</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>52</v>
+      <c r="D42" s="30">
+        <v>38.5</v>
+      </c>
+      <c r="E42" s="30">
+        <v>3.85</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="29">
+        <v>1</v>
+      </c>
+      <c r="C43" s="28">
         <v>10</v>
       </c>
-      <c r="D43" s="32">
-        <v>32.5</v>
-      </c>
-      <c r="E43" s="32">
-        <v>3.25</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>52</v>
+      <c r="D43" s="31">
+        <v>41</v>
+      </c>
+      <c r="E43" s="31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4043,16 +4708,16 @@
         <v>0</v>
       </c>
       <c r="D49" s="17">
-        <v>0.35000000000000009</v>
+        <v>0.24999999999999956</v>
       </c>
       <c r="E49" s="17">
-        <v>0</v>
+        <v>1.4999999999999996</v>
       </c>
       <c r="F49" s="17">
-        <v>-0.14999999999999991</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="G49" s="17">
-        <v>0.30000000000000027</v>
+        <v>2.1499999999999995</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -4060,19 +4725,19 @@
         <v>2</v>
       </c>
       <c r="C50" s="18">
-        <v>-0.35000000000000009</v>
+        <v>-0.24999999999999956</v>
       </c>
       <c r="D50" s="15">
         <v>0</v>
       </c>
       <c r="E50" s="18">
-        <v>-0.35000000000000009</v>
+        <v>1.25</v>
       </c>
       <c r="F50" s="18">
-        <v>-0.5</v>
+        <v>1.35</v>
       </c>
       <c r="G50" s="18">
-        <v>-4.9999999999999822E-2</v>
+        <v>1.9000000000000001</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -4080,19 +4745,19 @@
         <v>3</v>
       </c>
       <c r="C51" s="18">
-        <v>0</v>
+        <v>-1.4999999999999996</v>
       </c>
       <c r="D51" s="18">
-        <v>0.35000000000000009</v>
+        <v>-1.25</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
       </c>
       <c r="F51" s="18">
-        <v>-0.14999999999999991</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="G51" s="18">
-        <v>0.30000000000000027</v>
+        <v>0.65000000000000013</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
@@ -4100,19 +4765,19 @@
         <v>4</v>
       </c>
       <c r="C52" s="18">
-        <v>0.14999999999999991</v>
+        <v>-1.5999999999999996</v>
       </c>
       <c r="D52" s="18">
-        <v>0.5</v>
+        <v>-1.35</v>
       </c>
       <c r="E52" s="18">
-        <v>0.14999999999999991</v>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="F52" s="15">
         <v>0</v>
       </c>
       <c r="G52" s="18">
-        <v>0.45000000000000018</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4120,16 +4785,16 @@
         <v>5</v>
       </c>
       <c r="C53" s="19">
-        <v>-0.30000000000000027</v>
+        <v>-2.1499999999999995</v>
       </c>
       <c r="D53" s="19">
-        <v>4.9999999999999822E-2</v>
+        <v>-1.9000000000000001</v>
       </c>
       <c r="E53" s="19">
-        <v>-0.30000000000000027</v>
+        <v>-0.65000000000000013</v>
       </c>
       <c r="F53" s="19">
-        <v>-0.45000000000000018</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="G53" s="16">
         <v>0</v>
@@ -4137,12 +4802,12 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4172,16 +4837,16 @@
         <v>1</v>
       </c>
       <c r="D60" s="17">
-        <v>0.98785746923065765</v>
+        <v>0.99665968393005877</v>
       </c>
       <c r="E60" s="17">
-        <v>1</v>
+        <v>0.21087650496222121</v>
       </c>
       <c r="F60" s="17">
-        <v>0.99955073234847669</v>
-      </c>
-      <c r="G60" s="17">
-        <v>0.99324709979755232</v>
+        <v>0.15711465685463744</v>
+      </c>
+      <c r="G60" s="38">
+        <v>1.999056194101112E-2</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -4189,19 +4854,19 @@
         <v>2</v>
       </c>
       <c r="C61" s="18">
-        <v>0.98785746923065765</v>
+        <v>0.99665968393005877</v>
       </c>
       <c r="D61" s="15">
         <v>1</v>
       </c>
       <c r="E61" s="18">
-        <v>0.98785746923065765</v>
+        <v>0.39254276324170623</v>
       </c>
       <c r="F61" s="18">
-        <v>0.95495485523356227</v>
+        <v>0.31229191757291785</v>
       </c>
       <c r="G61" s="18">
-        <v>0.99999434917191132</v>
+        <v>5.5868084584345112E-2</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
@@ -4209,19 +4874,19 @@
         <v>3</v>
       </c>
       <c r="C62" s="18">
-        <v>1</v>
+        <v>0.21087650496222121</v>
       </c>
       <c r="D62" s="18">
-        <v>0.98785746923065765</v>
+        <v>0.39254276324170623</v>
       </c>
       <c r="E62" s="15">
         <v>1</v>
       </c>
       <c r="F62" s="18">
-        <v>0.99955073234847669</v>
+        <v>0.99991021685700587</v>
       </c>
       <c r="G62" s="18">
-        <v>0.99324709979755232</v>
+        <v>0.8896054029238214</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -4229,36 +4894,36 @@
         <v>4</v>
       </c>
       <c r="C63" s="18">
-        <v>0.99955073234847669</v>
+        <v>0.15711465685463744</v>
       </c>
       <c r="D63" s="18">
-        <v>0.95495485523356227</v>
+        <v>0.31229191757291785</v>
       </c>
       <c r="E63" s="18">
-        <v>0.99955073234847669</v>
+        <v>0.99991021685700587</v>
       </c>
       <c r="F63" s="15">
         <v>1</v>
       </c>
       <c r="G63" s="18">
-        <v>0.96915159200350132</v>
+        <v>0.9370782837584527</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="19">
-        <v>0.99324709979755232</v>
+      <c r="C64" s="39">
+        <v>1.999056194101112E-2</v>
       </c>
       <c r="D64" s="19">
-        <v>0.99999434917191132</v>
+        <v>5.5868084584345112E-2</v>
       </c>
       <c r="E64" s="19">
-        <v>0.99324709979755232</v>
+        <v>0.8896054029238214</v>
       </c>
       <c r="F64" s="19">
-        <v>0.96915159200350132</v>
+        <v>0.9370782837584527</v>
       </c>
       <c r="G64" s="16">
         <v>1</v>
@@ -4266,7 +4931,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4292,109 +4957,140 @@
       <c r="B70" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="27" t="s">
-        <v>58</v>
+      <c r="C70" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F71" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G71" s="28" t="s">
-        <v>58</v>
+      <c r="C71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>58</v>
+      <c r="C72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G73" s="28" t="s">
-        <v>58</v>
+      <c r="C73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G74" s="29" t="s">
-        <v>58</v>
+      <c r="C74" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B29:J30"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9217" r:id="rId3" name="Drop Down 1">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0" macro="[0]!GoToResults42520222370437">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>609600</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>